--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -98,134 +98,15 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
-    <t>Observații</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
-    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
-  </si>
-  <si>
-    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <i/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <i/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <i/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <i/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF0066CC"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
+    <t>1. PizzaShop</t>
+  </si>
+  <si>
+    <t>Aplicatia permite plasarea si onorarea comenzilor de pizza dintr-un restaurant cu 8 mese, precum si plata
+(simulata) prin card sau cash.</t>
+  </si>
+  <si>
+    <t>F01. Pentru fiecare plata realizata se retin intr-un fisier urmatoarele detalii: masa, tipul platii (cash sau
+card) si valoarea achitata.</t>
   </si>
   <si>
     <r>
@@ -1442,7 +1323,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1452,9 +1335,6 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1535,6 +1415,7 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2107,29 +1988,19 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2144,9 +2015,7 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2162,9 +2031,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="15"/>
     </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1">
@@ -2173,7 +2040,7 @@
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="I29" s="17"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -3196,8 +3063,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="18" t="s">
-        <v>24</v>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3207,14 +3074,14 @@
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="19" t="s">
-        <v>25</v>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="20" t="s">
-        <v>26</v>
+      <c r="G5" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3224,359 +3091,359 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>33</v>
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="7">
         <v>3.0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>3.0</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="G9" s="21">
+      <c r="C9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="G9" s="20">
         <v>2.0</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>46</v>
+      <c r="H9" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="I9" s="7">
         <v>6.0</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="B11" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="G11" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="I11" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="25">
+      <c r="K11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="39">
         <v>4.0</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="36" t="s">
+      <c r="J12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="37" t="s">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="G13" s="38">
+        <v>6.0</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="B11" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="G11" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="35" t="s">
+      <c r="K13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L13" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="H12" s="40" t="s">
+      <c r="G14" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="40" t="s">
+      <c r="D15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="G15" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="B17" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="G13" s="39">
-        <v>6.0</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="G15" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="28">
-        <v>11.0</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="28">
-        <v>12.0</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="28">
-        <v>13.0</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="44"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>14.0</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="D22" s="11" t="s">
-        <v>70</v>
+      <c r="D22" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="F22" s="46"/>
     </row>
@@ -4562,24 +4429,24 @@
   <mergeCells count="29">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B5:E5"/>
@@ -4636,7 +4503,7 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4647,13 +4514,13 @@
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="48" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="49"/>
-      <c r="G5" s="20" t="s">
-        <v>73</v>
+      <c r="G5" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -4664,59 +4531,59 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>72</v>
+      <c r="B6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="50"/>
-      <c r="G6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>77</v>
+      <c r="G6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
       <c r="M6" s="51" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>1.0</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -4724,28 +4591,28 @@
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="21">
+        <v>74</v>
+      </c>
+      <c r="G8" s="20">
         <v>1.0</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J8" s="59">
         <v>1.0</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -4753,28 +4620,28 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="42">
+        <v>79</v>
+      </c>
+      <c r="G9" s="41">
         <v>2.0</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J9" s="61">
         <v>8.0</v>
       </c>
-      <c r="K9" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>85</v>
+      <c r="K9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="N9" s="3"/>
     </row>
@@ -4782,28 +4649,28 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="21">
+        <v>82</v>
+      </c>
+      <c r="G10" s="20">
         <v>3.0</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J10" s="59">
         <v>2.0</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -4811,90 +4678,90 @@
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="21">
+        <v>84</v>
+      </c>
+      <c r="G11" s="20">
         <v>4.0</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>92</v>
+      <c r="H11" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J11" s="59">
         <v>0.0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="21">
+        <v>87</v>
+      </c>
+      <c r="G12" s="20">
         <v>5.0</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J12" s="59">
         <v>9.0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>2.0</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>67</v>
+      <c r="C13" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="42">
+        <v>89</v>
+      </c>
+      <c r="G13" s="41">
         <v>6.0</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J13" s="61">
         <v>1.0</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>99</v>
+      <c r="K13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -4902,28 +4769,28 @@
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="21">
+        <v>93</v>
+      </c>
+      <c r="G14" s="20">
         <v>7.0</v>
       </c>
       <c r="H14" s="64">
         <v>1.0</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J14" s="59">
         <v>0.0</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -4931,28 +4798,28 @@
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="21">
+        <v>97</v>
+      </c>
+      <c r="G15" s="20">
         <v>8.0</v>
       </c>
       <c r="H15" s="64">
         <v>6.0</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J15" s="59">
         <v>9.0</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="N15" s="3"/>
     </row>
@@ -4960,26 +4827,26 @@
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="6"/>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>9.0</v>
       </c>
       <c r="H16" s="64">
         <v>7.0</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J16" s="59" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -4987,10 +4854,10 @@
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="6"/>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>10.0</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="65"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -4999,13 +4866,13 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="6"/>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>11.0</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="65"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -5014,15 +4881,15 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="45">
+      <c r="B19" s="44">
         <v>3.0</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="6"/>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>12.0</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="65"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -5034,10 +4901,10 @@
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="6"/>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>13.0</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="65"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5049,10 +4916,10 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="7"/>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>14.0</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="65"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5064,10 +4931,10 @@
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="6"/>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>15.0</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="65"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5079,10 +4946,10 @@
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="6"/>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>16.0</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="65"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5091,13 +4958,13 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="6"/>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>17.0</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="65"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -5106,15 +4973,15 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="45">
+      <c r="B25" s="44">
         <v>4.0</v>
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="6"/>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>18.0</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="65"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -5146,8 +5013,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -6122,19 +5989,29 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
@@ -6142,25 +6019,15 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="I29:L29"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6201,7 +6068,7 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="69" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6213,25 +6080,25 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="22" t="s">
-        <v>106</v>
+      <c r="B4" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>33</v>
+        <v>101</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="24" t="s">
-        <v>34</v>
+      <c r="I4" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -6241,19 +6108,19 @@
       <c r="D5" s="74"/>
       <c r="E5" s="72"/>
       <c r="F5" s="75" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -6261,196 +6128,196 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" s="80">
         <v>3.0</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <f t="shared" ref="B7:B13" si="1">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="F7" s="83">
         <v>0.0</v>
       </c>
       <c r="G7" s="84" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="40">
+        <v>109</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="39">
         <v>4.0</v>
       </c>
       <c r="G8" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="F9" s="88">
         <v>1.0</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H9" s="88" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="F10" s="89">
         <v>8.0</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="F11" s="89">
         <v>0.0</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="89">
         <v>9.0</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -6460,25 +6327,25 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="91" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -6494,7 +6361,7 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="92" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -6509,23 +6376,23 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="C17" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="95"/>
       <c r="F17" s="96"/>
       <c r="G17" s="97" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H17" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I17" s="95"/>
       <c r="J17" s="95"/>
       <c r="K17" s="95"/>
       <c r="L17" s="96"/>
       <c r="M17" s="98" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N17" s="95"/>
       <c r="O17" s="95"/>
@@ -6533,60 +6400,60 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="99" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="103"/>
+      <c r="J18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="M18" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="P18" s="107" t="s">
         <v>130</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="103"/>
-      <c r="J18" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="P18" s="107" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="108"/>
       <c r="C19" s="109"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="110"/>
       <c r="G19" s="111"/>
       <c r="H19" s="112"/>
       <c r="I19" s="113"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="110"/>
       <c r="M19" s="109"/>
       <c r="N19" s="113"/>
@@ -6595,7 +6462,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="115" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C20" s="116">
         <v>7.0</v>
@@ -6613,7 +6480,7 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="121" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="6">
@@ -6626,7 +6493,7 @@
         <v>0.0</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N20" s="124">
         <v>4.0</v>
@@ -7622,33 +7489,33 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="M17:P17"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
